--- a/source_data/temporary/observational/observational.xlsx
+++ b/source_data/temporary/observational/observational.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632B598-2A24-7841-8147-9FED62F04FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D533B4F6-922F-4B47-BB81-3752C2062234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="49340" windowHeight="27260" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="49340" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="786">
   <si>
     <t>Screening</t>
   </si>
@@ -2408,6 +2408,18 @@
   </si>
   <si>
     <t>Equal Probability Sampling Method</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
   </si>
 </sst>
 </file>
@@ -2637,14 +2649,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5013,122 +5025,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8649,10 +8685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -8703,10 +8739,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -9046,7 +9082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
@@ -9202,12 +9238,12 @@
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -9307,12 +9343,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -9324,6 +9354,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source_data/temporary/observational/observational.xlsx
+++ b/source_data/temporary/observational/observational.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm_data/source_data/temporary/observational/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D533B4F6-922F-4B47-BB81-3752C2062234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292D7512-371A-C842-B5F8-34D100C8D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="49340" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="11" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2293,12 +2293,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>NCI_1</t>
   </si>
   <si>
@@ -2420,6 +2414,12 @@
   </si>
   <si>
     <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -4585,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4658,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
@@ -4688,7 +4688,7 @@
         <v>728</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>602</v>
@@ -5027,7 +5027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5201,7 +5201,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>65</v>
@@ -5219,7 +5219,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>71</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5267,7 +5267,7 @@
         <v>99</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5315,7 +5315,7 @@
         <v>514</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>721</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>722</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>723</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>724</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>378</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6222,16 +6222,16 @@
         <v>419</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>184</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
         <v>470</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6267,7 +6267,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6301,7 +6301,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6318,7 +6318,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>121</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
         <v>121</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6369,7 +6369,7 @@
         <v>121</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6386,7 +6386,7 @@
         <v>121</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6403,7 +6403,7 @@
         <v>121</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6420,7 +6420,7 @@
         <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6437,7 +6437,7 @@
         <v>121</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6491,7 +6491,7 @@
         <v>121</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6509,7 +6509,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>121</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
         <v>121</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6563,7 +6563,7 @@
         <v>121</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6581,7 +6581,7 @@
         <v>121</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>121</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6617,7 +6617,7 @@
         <v>121</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6635,7 +6635,7 @@
         <v>121</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6653,7 +6653,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>121</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6689,7 +6689,7 @@
         <v>121</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6707,7 +6707,7 @@
         <v>121</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6725,7 +6725,7 @@
         <v>121</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>121</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6761,7 +6761,7 @@
         <v>121</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6779,7 +6779,7 @@
         <v>121</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6797,7 +6797,7 @@
         <v>121</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>121</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>121</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6851,7 +6851,7 @@
         <v>121</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6869,7 +6869,7 @@
         <v>121</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>121</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6905,7 +6905,7 @@
         <v>121</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6923,7 +6923,7 @@
         <v>121</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6941,7 +6941,7 @@
         <v>121</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>121</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6977,7 +6977,7 @@
         <v>121</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6995,7 +6995,7 @@
         <v>121</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7013,7 +7013,7 @@
         <v>121</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>121</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7049,7 +7049,7 @@
         <v>121</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7067,7 +7067,7 @@
         <v>121</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7085,7 +7085,7 @@
         <v>121</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>121</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>121</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7139,7 +7139,7 @@
         <v>121</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7157,7 +7157,7 @@
         <v>121</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>121</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7193,7 +7193,7 @@
         <v>121</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7211,7 +7211,7 @@
         <v>121</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7229,7 +7229,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>121</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7265,7 +7265,7 @@
         <v>121</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7283,7 +7283,7 @@
         <v>121</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7301,7 +7301,7 @@
         <v>121</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>121</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7337,7 +7337,7 @@
         <v>121</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7355,7 +7355,7 @@
         <v>121</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7373,7 +7373,7 @@
         <v>121</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>121</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7409,7 +7409,7 @@
         <v>121</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7427,7 +7427,7 @@
         <v>121</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7445,7 +7445,7 @@
         <v>121</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>121</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7481,7 +7481,7 @@
         <v>121</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7499,7 +7499,7 @@
         <v>121</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7517,7 +7517,7 @@
         <v>121</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>121</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7553,7 +7553,7 @@
         <v>121</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>121</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7589,7 +7589,7 @@
         <v>121</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>121</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>121</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7643,7 +7643,7 @@
         <v>121</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7661,7 +7661,7 @@
         <v>121</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>121</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7697,7 +7697,7 @@
         <v>121</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7715,7 +7715,7 @@
         <v>121</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7733,7 +7733,7 @@
         <v>121</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7751,7 +7751,7 @@
         <v>121</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7769,7 +7769,7 @@
         <v>121</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7787,7 +7787,7 @@
         <v>121</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7805,7 +7805,7 @@
         <v>121</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7823,7 +7823,7 @@
         <v>121</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7841,13 +7841,13 @@
         <v>121</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>121</v>
@@ -7859,13 +7859,13 @@
         <v>121</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>121</v>
@@ -7877,7 +7877,7 @@
         <v>121</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7895,7 +7895,7 @@
         <v>121</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7913,7 +7913,7 @@
         <v>121</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7931,7 +7931,7 @@
         <v>121</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7949,7 +7949,7 @@
         <v>121</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7967,7 +7967,7 @@
         <v>121</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7985,7 +7985,7 @@
         <v>121</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8003,7 +8003,7 @@
         <v>121</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8021,7 +8021,7 @@
         <v>121</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8039,7 +8039,7 @@
         <v>121</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
         <v>121</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8075,7 +8075,7 @@
         <v>121</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8093,7 +8093,7 @@
         <v>121</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8111,7 +8111,7 @@
         <v>121</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8129,7 +8129,7 @@
         <v>121</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8147,7 +8147,7 @@
         <v>121</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8165,7 +8165,7 @@
         <v>121</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8183,7 +8183,7 @@
         <v>121</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8201,7 +8201,7 @@
         <v>121</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8219,7 +8219,7 @@
         <v>121</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8237,7 +8237,7 @@
         <v>121</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8255,7 +8255,7 @@
         <v>121</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8273,7 +8273,7 @@
         <v>121</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8291,7 +8291,7 @@
         <v>121</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8309,7 +8309,7 @@
         <v>121</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8327,7 +8327,7 @@
         <v>121</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>121</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>121</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8381,7 +8381,7 @@
         <v>121</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8399,7 +8399,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8417,7 +8417,7 @@
         <v>121</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8435,7 +8435,7 @@
         <v>121</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8453,7 +8453,7 @@
         <v>121</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8471,7 +8471,7 @@
         <v>121</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8489,7 +8489,7 @@
         <v>121</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8507,7 +8507,7 @@
         <v>121</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8525,7 +8525,7 @@
         <v>121</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8543,7 +8543,7 @@
         <v>121</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
         <v>121</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8579,7 +8579,7 @@
         <v>121</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8597,7 +8597,7 @@
         <v>121</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8861,7 +8861,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -8881,7 +8881,7 @@
         <v>629</v>
       </c>
       <c r="C4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D4" t="s">
         <v>632</v>
@@ -8929,19 +8929,19 @@
         <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D7" t="s">
         <v>770</v>
-      </c>
-      <c r="C7" t="s">
-        <v>768</v>
-      </c>
-      <c r="D7" t="s">
-        <v>772</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8949,19 +8949,19 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>767</v>
+      </c>
+      <c r="D8" t="s">
         <v>771</v>
-      </c>
-      <c r="C8" t="s">
-        <v>769</v>
-      </c>
-      <c r="D8" t="s">
-        <v>773</v>
       </c>
       <c r="E8" t="s">
         <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -8988,7 +8988,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -9004,7 +9004,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9012,7 +9012,7 @@
         <v>636</v>
       </c>
       <c r="B4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9056,21 +9056,21 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>95</v>
@@ -9239,7 +9239,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>778</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>780</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -9269,10 +9269,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>779</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>781</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -9343,6 +9343,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -9354,12 +9360,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9392,10 +9392,10 @@
         <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9409,10 +9409,10 @@
         <v>699</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9426,10 +9426,10 @@
         <v>702</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9443,10 +9443,10 @@
         <v>706</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/temporary/observational/observational.xlsx
+++ b/source_data/temporary/observational/observational.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm_data/source_data/temporary/observational/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292D7512-371A-C842-B5F8-34D100C8D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76D844-1F44-2541-B1CB-D9DFC4864FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="11" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39000" yWindow="500" windowWidth="38400" windowHeight="20060" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -376,12 +376,6 @@
     <t>IC Event Description Number 2</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2420,6 +2414,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2993,10 +2993,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3105,71 +3105,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F17" s="22">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" t="s">
         <v>458</v>
-      </c>
-      <c r="C18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D18" t="s">
-        <v>458</v>
-      </c>
-      <c r="E18" t="s">
-        <v>460</v>
       </c>
       <c r="F18" s="22">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3199,128 +3199,128 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -3348,116 +3348,116 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" t="s">
         <v>488</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>489</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>490</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>491</v>
       </c>
-      <c r="E2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F2" t="s">
-        <v>493</v>
-      </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" t="s">
         <v>602</v>
       </c>
-      <c r="B4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C4" t="s">
-        <v>604</v>
-      </c>
       <c r="D4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F4" t="s">
         <v>491</v>
       </c>
-      <c r="E4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F4" t="s">
-        <v>493</v>
-      </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B5" t="s">
         <v>730</v>
       </c>
-      <c r="B5" t="s">
-        <v>732</v>
-      </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H6">
         <v>1234</v>
@@ -3490,42 +3490,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>36</v>
@@ -3534,36 +3534,36 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3572,16 +3572,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3590,65 +3590,65 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3657,7 +3657,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3682,26 +3682,26 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3736,10 +3736,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3762,10 +3762,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3814,196 +3814,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>545</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H2" t="s">
         <v>550</v>
-      </c>
-      <c r="E2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="s">
         <v>553</v>
       </c>
-      <c r="B3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" t="s">
-        <v>555</v>
-      </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" t="s">
         <v>557</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" t="s">
         <v>558</v>
-      </c>
-      <c r="C4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" t="s">
         <v>561</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" t="s">
         <v>562</v>
       </c>
-      <c r="C5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="E5" t="s">
-        <v>529</v>
-      </c>
-      <c r="F5" t="s">
-        <v>528</v>
-      </c>
-      <c r="G5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H5" t="s">
-        <v>552</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="E6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F6" t="s">
-        <v>528</v>
-      </c>
-      <c r="G6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4030,80 +4030,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -4130,13 +4130,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -4152,35 +4152,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B5" t="s">
         <v>582</v>
       </c>
-      <c r="B5" t="s">
-        <v>584</v>
-      </c>
       <c r="C5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4211,16 +4211,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>37</v>
@@ -4231,13 +4231,13 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>38</v>
@@ -4248,13 +4248,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>39</v>
@@ -4299,61 +4299,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4361,58 +4361,58 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" t="s">
         <v>657</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="G2" t="s">
         <v>658</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>739</v>
+      </c>
+      <c r="I2" t="s">
         <v>659</v>
       </c>
-      <c r="E2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>660</v>
       </c>
-      <c r="H2" t="s">
-        <v>741</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>661</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>662</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>668</v>
+      </c>
+      <c r="N2" t="s">
         <v>663</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>669</v>
+      </c>
+      <c r="P2" t="s">
         <v>664</v>
       </c>
-      <c r="M2" t="s">
-        <v>670</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
         <v>665</v>
       </c>
-      <c r="O2" t="s">
-        <v>671</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" s="30" t="s">
         <v>666</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" t="s">
-        <v>667</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4420,58 +4420,58 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L3" t="s">
         <v>675</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>668</v>
+      </c>
+      <c r="N3" t="s">
+        <v>663</v>
+      </c>
+      <c r="O3" t="s">
+        <v>669</v>
+      </c>
+      <c r="P3" t="s">
         <v>676</v>
       </c>
-      <c r="L3" t="s">
-        <v>677</v>
-      </c>
-      <c r="M3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
         <v>665</v>
       </c>
-      <c r="O3" t="s">
-        <v>671</v>
-      </c>
-      <c r="P3" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>667</v>
-      </c>
       <c r="S3" s="30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -4501,39 +4501,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4545,35 +4545,35 @@
         <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" t="s">
         <v>683</v>
       </c>
-      <c r="B4" t="s">
-        <v>685</v>
-      </c>
       <c r="G4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4607,43 +4607,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4651,21 +4651,21 @@
         <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
@@ -4681,23 +4681,23 @@
         <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
@@ -4719,7 +4719,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
@@ -5043,37 +5043,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>467</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5081,85 +5081,85 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>475</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -5192,7 +5192,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>64</v>
@@ -5201,7 +5201,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>65</v>
@@ -5219,7 +5219,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>70</v>
@@ -5251,7 +5251,7 @@
         <v>71</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5267,7 +5267,7 @@
         <v>99</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5297,10 +5297,10 @@
         <v>69</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>103</v>
@@ -5312,10 +5312,10 @@
         <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -5344,53 +5344,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="D3" t="s">
-        <v>524</v>
-      </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5426,175 +5426,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -5622,104 +5622,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5744,55 +5744,55 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6216,40 +6216,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>748</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6258,2376 +6258,2376 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B139" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -8686,94 +8686,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -8799,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30139333-F9B9-B04D-8919-9DE21C6C2890}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8815,22 +8815,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8847,10 +8847,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>785</v>
       </c>
       <c r="F2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8861,67 +8861,67 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>784</v>
       </c>
       <c r="F3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E4" t="s">
         <v>629</v>
-      </c>
-      <c r="C4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E4" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -8929,19 +8929,19 @@
         <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" t="s">
         <v>768</v>
       </c>
-      <c r="C7" t="s">
-        <v>766</v>
-      </c>
-      <c r="D7" t="s">
-        <v>770</v>
-      </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>784</v>
       </c>
       <c r="F7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8949,19 +8949,19 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D8" t="s">
         <v>769</v>
       </c>
-      <c r="C8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>784</v>
+      </c>
+      <c r="F8" t="s">
         <v>771</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -8988,7 +8988,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -9004,31 +9004,31 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -9056,21 +9056,21 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -9095,10 +9095,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -9106,10 +9106,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9120,7 +9120,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -9131,7 +9131,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>95</v>
@@ -9183,10 +9183,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>686</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>688</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -9216,10 +9216,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -9239,7 +9239,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>776</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>778</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -9269,10 +9269,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>777</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>779</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>21</v>
@@ -9300,16 +9300,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9317,16 +9317,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -9343,12 +9343,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -9360,6 +9354,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9383,70 +9383,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>700</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>706</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -9475,22 +9475,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9498,19 +9498,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9524,13 +9524,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9559,13 +9559,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
@@ -9576,13 +9576,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9590,13 +9590,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9604,13 +9604,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9618,13 +9618,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
